--- a/uploads/exam_score_template.xlsx
+++ b/uploads/exam_score_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Desktop\網管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF4F9DF-FC61-4B8B-98F9-51B368FAA9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C9630B-795A-4FE9-9213-BBF74AD461B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請填入以下格式:西元年-月-日,官辦 or 自辦。Example:2025-01-06,自辦(可以多種場次一起新增(填B、C、D…欄位)，格子為空表示沒有考此考試)</t>
+    <t>請填入以下格式:西元年-月-日,官辦 or 自辦。Example:2025-01-06,自辦(可以多種場次一起新增(填B、D、F…欄位)，格子為空表示該學生沒有考此考試)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註(C、E、G…都是前一欄位的備註，請不要將考試場次填在奇數格)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下為例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感冒請假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350137</t>
+  </si>
+  <si>
+    <t>缺考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350138</t>
+  </si>
+  <si>
+    <t>2024-12-20,官辦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,23 +395,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="110.875" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="153.375" customWidth="1"/>
+    <col min="3" max="3" width="69.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
